--- a/va_facility_data_2025-02-20/John J. Pershing Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20Pershing%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John J. Pershing Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20Pershing%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbe1cde7b2b9a4aa293fe7c491725a278"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb6bdff461d9b4f8d8f9b33259972315e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9481a2a600fe4a559297821f7b575477"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re6cf7e57c2d4407b8b8c49333cd2a0a8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R09a8326419c04f8ba02111538f180e79"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd2b5753009df4e33909f6eab24ffd5f7"/>
   </x:sheets>
 </x:workbook>
 </file>
